--- a/C#/Notes/Vocabulary.xlsx
+++ b/C#/Notes/Vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\.Net\C#\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D50469-9C71-4782-86F4-E71203E19D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122B8548-FD54-4CF5-8BC2-56A50CE14619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{079E6231-B827-493C-A4DB-A5DB321F93CE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
   <si>
     <t>pane</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字面量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>character literal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,6 +118,344 @@
   </si>
   <si>
     <t>换行符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cryptic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难懂的，神秘的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parenthesis</t>
+  </si>
+  <si>
+    <t>括号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细微的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>literal string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method invocation operator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法调用运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member access operator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员访问运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是句号.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是括号()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the end of statement operatpr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语句运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是分号;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opening parenthesis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closing parenthesis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左括号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右括号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>punctuation</t>
+  </si>
+  <si>
+    <t>标点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow of execution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numeric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alphanumeric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本，字面量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>literal value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是abcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard-coded value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>literal character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>literal data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char类型文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char literal / character literal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int literal / integer literal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int类型文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whole number / integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fraction / decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal literal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>literal surffix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本后缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔类型文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十进制类型文本(小数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool literal / boolean literal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>falsehood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚假的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字加减是calculate，文本是presentation，布尔是evaluate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">underscore </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下划线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camel case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驼峰命名法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descriptive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有描述性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>declare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,12 +480,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,8 +508,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,18 +829,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71AD23B-BD41-4805-85D1-CDB46EEE2727}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -536,53 +879,386 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
